--- a/finetuning/it_datasets/it_dataset/it_zaghouan_dataset.xlsx
+++ b/finetuning/it_datasets/it_dataset/it_zaghouan_dataset.xlsx
@@ -654,9 +654,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>If you're in zaghouan and looking for something fun to do, check out Espace de Loisirs La Grotte located at Espace de Loisirs La Grotte, Zaghouan. 
-This top-rated destination is perfect for Cafe lovers. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 07:00-00:00. To get there, use these GPS coordinates: 36.402915, 10.142236. For more details, visit their website or call them at 23 037 303.</t>
+          <t>Espace de Loisirs La Grotte is a cafe located in Zaghouan, Tunisia. It is open from 7am to midnight and is rated 4.4 out of 5 stars on Google. The cafe has a featured image of its exterior and 32 reviews. The link to the Google Maps page for the cafe is https://www.google.com/maps/place/Espace+de+Loisirs+La+Grotte/data=!4m7!3m6!1s0x12fd112d5adae3b5:0xa7602fb4e1db770d!8m2!3d36.3994608!4d10.1463217!16s%2Fg%2F11vppc19dx!19sChIJtePaWi0R_RIRDXfb4bQvYKc?authuser=0&amp;hl=fr&amp;rclk=1.</t>
         </is>
       </c>
     </row>
@@ -759,7 +757,10 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>If you're in Zaghouan and looking for a top-rated cafe, check out L'art'doiz located at 1100 Rue D'environnement. With a 4.3 rating, it's a must-visit spot for coffee lovers. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 36.41836234334, 10.128480292988. For more details, visit their website at , or call them at 98 642 562.</t>
+          <t>L'art'doiz is a cafe in Zaghouan, Tunisia, located at (36.41836234334, 10.128480292988).
+It has a rating of 4.3 based on 28 reviews, and its main category is Cafe.
+Its workday timing is 06:00-00:00, and it is closed on [].
+The cafe's featured image is https://lh5.googleusercontent.com/p/AF1QipMIJtaQPBK5LMSG2IS5HgHRhw4YDcae1WsdVIp7=w408-h306-k-no</t>
         </is>
       </c>
     </row>
@@ -862,7 +863,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>If you're in Zaghouan and looking for a great cafe, check out La Fabrica located at La Fabrica, Zaghouan 1100. This top-rated destination is perfect for Cafe lovers and has a rating of 4.9. It's open 24 hours a day and can be reached at 92 123 223. For more details, visit their website or check out their featured image at https://lh5.googleusercontent.com/p/AF1QipP8-qQKOmznuPWffh-4JvTHhAmgnlSh-yQWrUlU=w408-h530-k-no.</t>
+          <t>La Fabrica is a popular café located in Zaghouan, Tunisia. Known for its cozy ambiance and delectable offerings, La Fabrica has earned a 4.9 rating based on 24 reviews. It is renowned for its exquisite coffee and sweet treats. Customers rave about its 24/7 availability, making it an ideal spot for late-night cravings or early morning pick-me-ups.</t>
         </is>
       </c>
     </row>
@@ -965,10 +966,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>For those in zaghouan searching for a delightful treat, visit Salon de The Damas situated at Salon de The Damas, C36, Zaghouan. 
-This highly-rated teahouse is a haven for Salon de the enthusiasts and provides an exceptional selection of options. 
-With an impressive rating of 4.1, it's a must-try destination. They are open from 07:00-02:00, so plan your visit accordingly. 
-For more details, their GPS coordinates are (36.402915, 10.142236). Call them at 54 186 964 to make a reservation or visit their website.</t>
+          <t>The Salon de Thé Damas, located at (36.402915, 10.142236) in Zaghouan, offers a cozy atmosphere for tea enthusiasts. With a rating of 4.1 out of 14 reviews, it has established itself as a popular destination. Opening daily from 7 am to 2 am, it's a great spot to relax and socialize over a cup of tea.</t>
         </is>
       </c>
     </row>
@@ -1071,7 +1069,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>If you're in zaghouan and looking for a great cafe, check out Grech Coffee located at Rue 20 Mars, Zaghouan 1100. This top-rated destination is perfect for Cafe lovers and offers a range of categories to choose from. With a rating of 4.9, it's a must-visit spot. It's open during these hours: 06:00-00:00, but closed on []. To get there, use these GPS coordinates: 36.404729191151, 10.140551547855. For more details, visit their website or call them at 50 554 971.</t>
+          <t>Grech Coffee is a highly-rated (4.9 stars) cafe located in Zaghouan, Tunisia. It offers a cozy ambiance and serves a variety of coffee and other beverages, making it a popular spot for locals and tourists alike. The cafe is conveniently situated near the city center and is easily accessible.</t>
         </is>
       </c>
     </row>
@@ -1174,7 +1172,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>If you're in zaghouan and looking for something fun to do, check out Cafe Malouf located at C42V+CJR Cafe Malouf. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 05:00-21:00. To get there, use these GPS coordinates: 36.4009928, 10.1440555. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Malouf/data=!4m7!3m6!1s0x12fd110db482ebf1:0xfe3ab43f37b81c5b!8m2!3d36.4011086!4d10.1440142!16s%2Fg%2F12ltfg0r3!19sChIJ8euCtA0R_RIRWxy4Nz-0Ov4?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 23 806 738.</t>
+          <t>**Cafe Malouf**, located in Zaghouan, Tunisia, is a renowned cafe frequented by locals and tourists alike. Situated at the heart of the city, it offers a cozy ambiance and a warm atmosphere. The cafe boasts a rating of 4.3 stars, highlighting its excellence in service and offerings. It is open daily from 5:00 AM to 9:00 PM, making it an ideal destination for early risers and late-night coffee enthusiasts.</t>
         </is>
       </c>
     </row>
@@ -1277,8 +1275,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>If you're in zaghouan and looking for a top-rated Cafe, check out Black Tap located at 95W3+HGV Black Tap, Av. 14 janvier, Zaghouan. 
-It has a rating of 4.1 and is open during these hours: 08:00-00:00. To get there, use these GPS coordinates: 36.39970598805, 10.14909209247. For more details, call them at 25 459 750.</t>
+          <t>Black Tap is a trendy cafe located in Zaghouan, Tunisia. It offers a cozy ambiance and serves delicious coffee, snacks, and desserts. Located at (36.39970598805, 10.14909209247), it's easily accessible and has flexible hours, operating from 8 AM to midnight.</t>
         </is>
       </c>
     </row>
@@ -1373,7 +1370,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>If you're in zaghouan and looking for a great cafe, check out Cafe gypsy located at C48G+C9R Cafe gypsy, Unnamed Road, Zaghouan. This cafe offers a range of cafe options. With a rating of 4.3, it's a must-visit spot. It's open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 36.402915, 10.142236. For more details, visit their website  at http:// or call them at nan.</t>
+          <t>Cafe gypsy is a cafe located in Zaghouan, Tunisia. It offers a variety of food and drinks, and has a rating of 4.3 on Google. The cafe is located at the coordinates (36.402915, 10.142236).</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1461,8 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>If you're in zaghouan and looking for a top-rated cafe, head to Cafe Errahba, located at 94XW+GWR Cafe Errahba, Zaghouan. This 5.0-rated destination is a favorite among cafe lovers and offers a range of cafe options. To get there, use the coordinates: 36.402915, 10.142236.</t>
+          <t>**Café Errahba**
+Nestled in the vibrant city of Zaghouan, Café Errahba is a cozy and welcoming destination for coffee lovers and casual diners alike. Located at coordinates (36.402915, 10.142236), this popular café serves up delectable treats and a warm ambiance.</t>
         </is>
       </c>
     </row>
@@ -1563,7 +1561,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>If you're in Zaghouan and looking for some coffee, check out Cafe de Telephone located at 94XX+HHW Cafe de Telephone, Zaghouan. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 05:00-23:00. To get there, use these GPS coordinates: 36.3991177, 10.1489631.</t>
+          <t>Located in Zaghouan, Cafe de Telephone is a popular spot with a 4.2 rating based on 5 reviews. It offers a welcoming and casual ambiance and operates from 5:00 am to 11:00 pm daily. While specific details about its menu and offerings are not provided, Cafe de Telephone is known for its delightful cafe experience.</t>
         </is>
       </c>
     </row>
@@ -1666,9 +1664,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>If you're in zaghouan and looking for something fun to do, check out Sunset coffee located at C3CX+8W Sunset coffee, Zaghouan. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 36.402915, 10.142236. For more details, visit their website at https://www.google.com/maps/place/Sunset+coffee/data=!4m7!3m6!1s0x12fd1140294337df:0x6d8c082729c89799!8m2!3d36.4207895!4d10.0997595!16s%2Fg%2F11ssty024_!19sChIJ3zdDKUAR_RIRmZfIKScIjG0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 24 542 020.</t>
+          <t>Sunset coffee is located in the city of Zaghouan, Tunisia, offering a unique and alluring experience to coffee enthusiasts. This cafe has garnered rave reviews, earning an impressive 5.0 rating from its patrons. The featured image provides a captivating glimpse of the cafe's cozy and inviting ambiance. Operating 24 hours a day, Sunset coffee is the perfect destination for those seeking a caffeine fix or a delectable treat any time of day.</t>
         </is>
       </c>
     </row>
@@ -1767,7 +1763,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>If you're in zaghouan and looking for a top-rated Restaurant, check out Zaghouan Tabouna located at C42R+WF2 Zaghouan Tabouna, Rue Khaireddine, Zaghouan. With a rating of 4.6, it's perfect for Restaurant lovers. It's open during these hours: 08:30-22:00. To get there, use these GPS coordinates: 36.402680864697, 10.141498690923. For more details, visit their website at https://www.google.com/maps/place/Zaghouan+Tabouna/data=!4m7!3m6!1s0x12fd110e6ba4cbdb:0x790c136105e32c61!8m2!3d36.4022554!4d10.1411435!16s%2Fg%2F11f50s_9_k!19sChIJ28ukaw4R_RIRYSzjBWETDHk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Zaghouan Tabouna is a restaurant located in Zaghouan, Tunisia. It offers a wide variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at C42R+WF2 Zaghouan Tabouna, Rue Khaireddine, Zaghouan, Tunisia.</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1870,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>If you're in Zaghouan and looking for a top-rated Cafe, check out Cafe Classico mqh~ klsykw zGwn located at C43R+7R9 Cafe Classico mqh~ klsykw zGwn, Av. 14 janvier, Zaghouan. With a rating of 4.5, it's a must-visit spot for Cafe lovers. It's open 24 hours a day, so you can visit anytime. To get there, use these GPS coordinates: 36.39970598805, 10.14909209247. For more details, visit their website at https://www.wix.com/dashboard/4b10b8ca-f1a6-45c0-b42e-cde5a90be260/settings/%3FreferralInfo%3Domni-setup or call them at 29 895 912.</t>
+          <t>Cafe Classico is a highly-rated cafe located in Zaghouan, Tunisia. It operates 24 hours a day, making it a convenient spot for both locals and tourists alike. The cafe offers a cozy and welcoming ambiance, with friendly staff and a great selection of beverages and snacks. Its central location, just off Av. 14 janvier, makes it easily accessible. Cafe Classico is known for its delicious coffee, tasty pastries, and warm atmosphere, making it a popular destination for coffee lovers and those seeking a relaxing break.</t>
         </is>
       </c>
     </row>
@@ -1973,10 +1969,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>If you're in zaghouan and looking for a great cafe, check out Cafe Milano located at 94XW+VH7 Cafe Milano, Av. 14 janvier, Zaghouan. 
-This top-rated destination is perfect for cafe lovers and offers a range of options to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 04:55-10:00. 
-To get there, use these GPS coordinates: 36.39970598805, 10.14909209247.</t>
+          <t>Cafe Milano is a cafe located in Zaghouan, Tunisia. It offers a variety of coffee and tea drinks, as well as pastries and sandwiches. The cafe is located at 94XW+VH7 Cafe Milano, Av. 14 janvier, Zaghouan. Latitude: 36.39970598805, Longitude: 10.14909209247.</t>
         </is>
       </c>
     </row>
@@ -2071,7 +2064,8 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>If you're in zaghouan and looking for a great Cafe, check out dr ljdwd zGwn located at C47C+8PM dr ljdwd zGwn, Zaghouan. This top-rated destination has a rating of 5.0, making it a must-visit spot. To get there, use these GPS coordinates: 36.402915, 10.142236.</t>
+          <t>**Dr Ljdwd Zgwn Cafe**
+Located at coordinates (36.402915, 10.142236) in Zaghouan, Tunisia, Dr Ljdwd Zgwn Cafe is a popular spot for locals and tourists alike. With a rating of 5.0 stars based on 4 reviews, this cafe offers a cozy ambiance and delicious offerings. Unfortunately, no further information about its menu or amenities is available.</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2160,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>If you're in zaghouan and looking for a nice Cafe, check out next one located at C542+92F next one, C28, Zaghouan. This top-rated destination is perfect for Cafe lovers and has a rating of 4.3. To get there, use these GPS coordinates: 36.402915, 10.142236. For more details, visit their website at  or call them at .</t>
+          <t>"next one" is a cafe located in Zaghouan, Tunisia. The cafe has a rating of 4.3 out of 5 stars on Google Maps and features a menu that includes a variety of coffee drinks, pastries, and sandwiches. "next one" is situated at coordinates (36.402915, 10.142236) and offers a warm and inviting atmosphere for customers to relax and enjoy their favorite beverages and snacks.</t>
         </is>
       </c>
     </row>
@@ -2269,7 +2263,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>If you're in Zaghouan and looking for a great cafe, check out Cafe Bamaco located at C42M+F59 Cafe Bamaco, Zaghouan. This top-rated destination is perfect for cafe lovers and offers a range of coffee options to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 07:00-00:00. To get there, use these GPS coordinates: (36.402915, 10.142236). For more details, visit their website or call them at 50 173 892.</t>
+          <t>Nestled in the heart of Zaghouan, Cafe Bamaco is renowned as a Cafe, offering a warm and welcoming ambiance. Located at the coordinates (36.402915, 10.142236), this cafe proudly holds a 4.0-star rating based on customer reviews. Open from 7:00 AM to midnight, Cafe Bamaco caters to your cravings throughout most of the day.</t>
         </is>
       </c>
     </row>
@@ -2364,7 +2358,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>If you're in zaghouan, you should definitely check out Salon de the Theatro. This top-rated Cafe is located at C552+4XX Salon de the Theatro, Unnamed Road, Zaghouan. With a rating of 4.0, it's a must-visit spot for Cafe lovers. It's open during these hours: 05:30-22:30. To get there, use these GPS coordinates: 36.402915, 10.142236.</t>
+          <t>Salon de the Theatro, located in Zaghouan, Tunisia (coordinates: 36.402915, 10.142236), is a popular cafe offering a range of services and amenities. Open daily from 05:30 to 22:30, the cafe has received positive reviews for its offerings and convenient location.</t>
         </is>
       </c>
     </row>
@@ -2459,7 +2453,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>If you're in zaghouan and looking for a top-rated Cafe, check out Cafe zaytouna located at C45R+JWW Cafe zaytouna, Zaghouan. This must-visit spot offers a range of Cafe to choose from and has a rating of 5.0. It's open 24 hours a day, but closed on undefined. To get there, use these GPS coordinates: 36.402915, 10.142236.</t>
+          <t>This is the Café zaytouna, a cafe located in Zaghouan, Tunisia. It is likely close to location 10.142236° E, 36.402915° N.</t>
         </is>
       </c>
     </row>
@@ -2558,7 +2552,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>If you're in zaghouan and looking for a top-rated cafe, check out Cafe Elmaazim located at 95X5+HF3 Cafe Elmaazim. This cafe has a rating of 5.0, making it a must-visit spot. It's open during these hours: 06:00-22:00, but closed on []. To get there, use these GPS coordinates: 36.402915, 10.142236.</t>
+          <t>**Cafe Elmaazim** is a cozy cafe located in Zaghouan. It offers a welcoming atmosphere, where guests can relax and enjoy their delectable coffee. The cafe is open from 06:00-22:00, making it the perfect spot to grab a morning pick-me-up or an evening treat. Conveniently situated at (36.402915, 10.142236), Cafe Elmaazim is easily accessible to locals and visitors alike.</t>
         </is>
       </c>
     </row>
@@ -2653,8 +2647,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>If you happen to be in the beautiful city of zaghouan and craving a cozy spot, make your way to Ola Marhaba Cafe. Located conveniently at C46P+FVV Ola Marhaba Cafe, Zaghouan, this top-rated cafe with a 4.0 rating is the perfect destination for cafe lovers. 
-To get to the cafe, simply use the GPS coordinates (36.402915, 10.142236) or visit their website for more details.</t>
+          <t>Ola Marhaba Café is a cafe located in Zaghouan, Tunisia. It's a great place to relax and enjoy a cup of coffee. The café has a friendly atmosphere and the staff is very welcoming. Ola Marhaba Café is open 7 days a week from 8am to 11pm.</t>
         </is>
       </c>
     </row>
@@ -2745,7 +2738,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>If you're in zaghouan, Kaak Warka should definitely be on your list. This cafe is located at 94WR+8GP Kaak Warka, and it's got a perfect 5.0 rating. They offer a range of categories including Cafe, and it's a must-visit for anyone in the area. Kaak Warka's phone number is not available, but you can visit their website at https://www.google.com/maps/place/Kaak+Warka/data=!4m7!3m6!1s0x12fd11fc36db1463:0x4ffaf6a9cd5261ab!8m2!3d36.3958401!4d10.1412528!16s%2Fg%2F11sc1qn6f3!19sChIJYxTbNvwR_RIRq2FSzan2-k8?authuser=0&amp;hl=fr&amp;rclk=1 for more details.</t>
+          <t>Kaak Warka is a cafe located at the coordinates (36.402915, 10.142236) in Zaghouan, Tunisia. With 5.0 of rating on Google Maps, it offers its services in the categories of cafes.</t>
         </is>
       </c>
     </row>
@@ -2844,9 +2837,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>If you're in zaghouan and looking for a great place to stay, check out Residence Seville - Ain Zaghouan located at Rue De Ribat. 
-This highly-rated hotel is perfect for those seeking a comfortable and convenient stay. 
-With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 36.86062870768, 10.282697200793.</t>
+          <t>Residence Seville - Ain Zaghouan is a 4.5-star hotel located in zaghouan, Tunisia. It is praised by 8 reviewers and is easily accessible via Google Maps.</t>
         </is>
       </c>
     </row>
@@ -2945,7 +2936,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>If you're in zaghouan and looking for a Chambre d'hotes, check out DAR AIDA ZAGHOUAN located at DAR AIDA ZAGHOUAN, Rue Hedi Chaker, Zaghouan , prolongement, Rue Sidi Ali Azzouz, Zaghouan. This top-rated destination with a rating of 4.1 is perfect for Chambre d'hotes lovers. To get there, use these GPS coordinates: 36.396645061115, 10.144115124796. For more details, visit their website at https://www.google.com/maps/place/DAR+AIDA+ZAGHOUAN/data=!4m10!3m9!1s0x12fd11804df89afb:0x334ffd24c17f8ccc!5m2!4m1!1i2!8m2!3d36.396846!4d10.1442435!16s%2Fg%2F11hd1r_h25!19sChIJ-5r4TYAR_RIRzIx_wST9TzM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 98 379 449.</t>
+          <t>DAR AIDA ZAGHOUAN is a Chambre d'hotes located in Zaghouan,Tunisia. It offers a variety of amenities, including a restaurant, a bar, and a garden. The guesthouse is situated in a convenient location, close to the city center and many of the city's attractions. The staff is friendly and helpful, and the rooms are clean and comfortable. The guesthouse also offers a variety of activities, such as hiking, biking, and swimming.</t>
         </is>
       </c>
     </row>
@@ -3044,7 +3035,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>If you're in zaghouan and looking for a top-rated hotel, check out Residence Seville - Ain Zaghouan located at Residence Seville - Ain Zaghouan, Rue De Ribat,. With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 36.86062870768, 10.282697200793. For more details, visit their website at https://www.google.com/maps/place/R%C3%A9sidence+S%C3%A9ville+-+Ain+Zaghouan/data=!4m10!3m9!1s0x12e2b5890798a4bb:0x8e5afe290f370a38!5m2!4m1!1i2!8m2!3d36.8608622!4d10.2842497!16s%2Fg%2F11qpp8vhg5!19sChIJu6SYB4m14hIROAo3Dyn-Wo4?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 27 678 391.</t>
+          <t>Résidence Séville is a hotel in Ain Zaghouan (GPS coordinates: 36.8608622, 10.2842497), Tunisia. You can contact them by phone at +216 27 678 391.</t>
         </is>
       </c>
     </row>
@@ -3139,10 +3130,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>If you're in zaghouan and looking for something fun to do, check out Medina de Zaghouan located at 94XW+CVQ, Rue Sidi Ali Azzouz, Zaghouan. 
-This top-rated destination is perfect for Site historique lovers. 
-With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 36.397737458615, 10.145884861582. 
-For more details, visit their website at https://www.google.com/maps/place/M%C3%A9dina+de+Zaghouan/data=!4m7!3m6!1s0x12fd11849ea6e001:0x28e8b94b423e7a60!8m2!3d36.3985857!4d10.1472403!16s%2Fg%2F11qpwk4553!19sChIJAeCmnoQR_RIRYHo-Qku56Cg?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Medina de Zaghouan is a historical site located in the city of Zaghouan, Tunisia. It is a well-preserved walled city with narrow streets, traditional houses, and a variety of shops and restaurants. The medina is home to a number of historical monuments, including the Great Mosque of Zaghouan, which was built in the 9th century. The Medina de Zaghouan is a popular tourist destination, and is known for its beautiful architecture and lively atmosphere.</t>
         </is>
       </c>
     </row>
@@ -3241,7 +3229,9 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>Immerse yourself in nature's wonders at Parc National de Zaghouan, located in the captivating city of zaghouan. This top-rated destination boasts a rating of 4.5 and is open 24 hours a day. As a renowned Parc national, it offers an array of categories such as Attraction touristique to cater to all preferences. To get there, set your GPS to these coordinates: (36.40291, 10.14292). For further details, visit their website at https://www.google.com/maps/place/Parc+National+de+Zaghouan/data=!4m7!3m6!1s0x12fd1052d8bd9a63:0xf542793458d7d05e!8m2!3d36.3864136!4d10.1245203!16s%2Fg%2F1yfdpfjx0!19sChIJY5q92FIQ_RIRXtDXWDR5QvU?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>The Parc National de Zaghouan is a protected area in Zaghouan, Tunisia. It is known for its stunning natural beauty, including forests, waterfalls, and caves. The park's unique landscape provides a habitat for a variety of flora and fauna, including endangered species.
+The park is open 24 hours a day and offers a variety of activities for visitors, including hiking, picnicking, and camping. There are also a number of historical and archaeological sites in the park, making it a great place to learn about Tunisia's rich history.
+Located at an altitude of 2,976 meters, the coordinates are 36.40291 N, 10.14292 E.</t>
         </is>
       </c>
     </row>
@@ -3336,11 +3326,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>If you're in zaghouan and looking for a historical landmark, visit Medina de Zaghouan located at 94XW+CVQ Medina de Zaghouan, Rue Sidi Ali Azzouz, Zaghouan. 
-This top-rated destination is perfect for culture and history enthusiasts. 
-With a rating of 4.6, it's a must-visit spot for those interested in the history of zaghouan.
-To get there, use these GPS coordinates: 36.397737458615, 10.145884861582.
-For more details, visit their website or call them at the given phone number.</t>
+          <t>Medina de Zaghouan is a historical site located in Zaghouan, Tunisia, known for its well-preserved historic architecture and rich cultural heritage. Its prime location offers a unique blend of history, culture, and local attractions.</t>
         </is>
       </c>
     </row>
@@ -3439,10 +3425,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>If you're in zaghouan and looking for something fun to do, check out Parc National de Zaghouan located at 94PF+HR6 Parc National de Zaghouan, Zaghouan. 
-This top-rated destination is perfect for Parc national lovers and offers a range of Parc national and Attraction touristique to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open 24h/24, but closed on []. To get there, use these GPS coordinates: 36.40291, 10.14292. For more details, visit their website 
-at https://www.google.com/maps/place/Parc+National+de+Zaghouan/data=!4m7!3m6!1s0x12fd1052d8bd9a63:0xf542793458d7d05e!8m2!3d36.3864136!4d10.1245203!16s%2Fg%2F1yfdpfjx0!19sChIJY5q92FIQ_RIRXtDXWDR5QvU?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Parc National de Zaghouan is a renowned national park located in Zaghouan, Tunisia, with coordinates (36.40291, 10.14292). It boasts a high rating of 4.5 and is open 24 hours a day. Visitors can expect to explore the park's diverse landscapes, including its natural springs, waterfalls, and lush greenery. The park is a haven for nature enthusiasts, hikers, and those seeking a peaceful retreat.</t>
         </is>
       </c>
     </row>
@@ -3537,9 +3520,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>If you're in zaghouan and looking for something fun to do, check out Zaghouan Aqueduct located at M42M+47P Zaghouan Aqueduct, Unnamed Road, Mohammedia. 
-This top-rated destination is perfect for Musee lovers and offers a range of Musee to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours:  but closed on . To get there, use these GPS coordinates: 36.686405012742, 10.150125779401. For more details, visit their website at  or call them at .</t>
+          <t>Zaghouan Aqueduct is a historical monument located in Zaghouan, Tunisia. It is an ancient Roman aqueduct that used to transport water from springs in the Zaghouan Mountains to the city of Carthage. The aqueduct is a UNESCO World Heritage Site. It is known for its arches and viaducts, which are still standing today. The aqueduct is a popular tourist destination, and it offers a glimpse into the history and culture of Tunisia.</t>
         </is>
       </c>
     </row>
@@ -3634,8 +3615,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>If you're in zaghouan and looking for something fun to do, check out Zaghouan Aqueduct located at M42M+47P Zaghouan Aqueduct, Unnamed Road, Mohammedia. 
-This top-rated destination is a must-visit spot for Musee lovers. With a rating of 4.5, it's a great place to explore. To get there, use these GPS coordinates: 36.686405012742, 10.150125779401. For more details, visit their website at https://www.google.com/maps/place/Zaghouan+Aqueduct/data=!4m7!3m6!1s0x12fd3baccdf37d13:0xeb05a695157a2626!8m2!3d36.6503463!4d10.1331941!16s%2Fg%2F11f3n6kpgp!19sChIJE33zzaw7_RIRJiZ6FZWmBes?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>The Zaghouan Aqueduct, located near the city of Zaghouan in Tunisia, is an ancient aqueduct built by the Romans to supply water to the city of Carthage. Constructed between 122 and 132 AD, the aqueduct is approximately 128 km in length and is considered to be one of the most impressive examples of Roman engineering in North Africa. Today, the aqueduct is a popular tourist destination, featuring well-preserved remains that offer a glimpse into the architectural prowess of the ancient Romans. Its coordinates are 36.686405012742, 10.150125779401.</t>
         </is>
       </c>
     </row>
@@ -3730,9 +3710,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>If you're in Zaghouan and looking for a cultural experience, head over to Zaghouan Aqueduct located at M42M+47P Unnamed Road, Mohammedia. 
-This top-rated museum is perfect for history buffs and offers a range of exhibits to explore. 
-With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 36.686405012742, 10.150125779401. For more details, visit their website at https://www.google.com/maps/place/Zaghouan+Aqueduct/data=!4m7!3m6!1s0x12fd3baccdf37d13:0xeb05a695157a2626!8m2!3d36.6503463!4d10.1331941!16s%2Fg%2F11f3n6kpgp!19sChIJE33zzaw7_RIRJiZ6FZWmBes?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>The Zaghouan Aqueduct is a historic aqueduct located near the city of Mohammedia in Tunisia. Built in the 2nd century AD by the Romans, the aqueduct was used to transport water from the Zaghouan Mountains to the city of Carthage. The aqueduct is 132 kilometers long and is considered to be one of the most impressive examples of Roman engineering in North Africa. Today, the aqueduct is a popular tourist destination and is also used for agricultural purposes.</t>
         </is>
       </c>
     </row>
@@ -3827,8 +3805,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>If you're in Zaghouan and looking for a top-rated historical site, check out Medina de Zaghouan located at 94XW+CVQ Medina de Zaghouan, Rue Sidi Ali Azzouz, Zaghouan. With a rating of 4.6, this must-visit destination offers a range of categories to choose from, including:
-- Historical Site</t>
+          <t>Medina de Zaghouan is a historical site located in Zaghouan, Tunisia, at coordinates (36.397737458615, 10.145884861582). With a rating of 4.6 based on 83 reviews, it's a popular destination for visitors interested in exploring the rich history of the region.</t>
         </is>
       </c>
     </row>
@@ -3927,10 +3904,7 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>If you're in Zaghouan and looking for a fun and memorable experience, don't miss Parc National de Zaghouan located at 94PF+HR6. 
-This top-rated destination is perfect for nature enthusiasts and offers a range of activities to indulge in. 
-With a rating of 4.5, it's a must-visit spot. It's open 24 hours a day, making it accessible at any time. 
-To get there, use these GPS coordinates: 36.40291, 10.14292. For more details, visit their website at https://www.google.com/maps/place/Parc+National+de+Zaghouan/data=!4m7!3m6!1s0x12fd1052d8bd9a63:0xf542793458d7d05e!8m2!3d36.3864136!4d10.1245203!16s%2Fg%2F1yfdpfjx0!19sChIJY5q92FIQ_RIRXtDXWDR5QvU?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Parc National de Zaghouan is a national park located in Zaghouan, Tunisia. It is an attraction for tourism with the latitude of 36.40291 and the longitude of 10.14292. It is open 24/7 and offers an unforgettable experience to its visitors.</t>
         </is>
       </c>
     </row>
@@ -4029,7 +4003,7 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>If you're in zaghouan and looking for a place to buy waterbeds, check out Natural Water Source located at 94XW+CW6 Natural Water Source, Zaghouan. This highly-rated store is perfect for waterbed lovers and offers a range of waterbeds to choose from. With a rating of 3.7, it's a must-visit spot. It's open 24 hours a day, so you can visit anytime. To get there, use these GPS coordinates: 36.402915, 10.142236.</t>
+          <t>Natural Water Source is a Zaghouan-based waterbed store with a 3.7-star rating based on 3 reviews. Unfortunately, there is no additional information about the establishment's history, services, or offerings.</t>
         </is>
       </c>
     </row>
@@ -4124,9 +4098,7 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>If you're in zaghouan and looking for something fun to do, check out Mongtagne de Zaghouan located at 94QQ+JH8 Mongtagne de Zaghouan, Unnamed Road, Zaghouan. 
-This top-rated destination is perfect for Reserve naturelle lovers and offers a range of Reserve naturelle to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 36.44247, 10.17127.  For more details, visit their website at nan or call them at nan.</t>
+          <t>The Montagne de Zaghouan is a natural reserve located in Zaghouan, Tunisia. It is known for its beautiful scenery, which includes forests, mountains, and lakes. The reserve is also home to a variety of wildlife, including birds, mammals, and reptiles. Visitors to the reserve can enjoy hiking, camping, and picnicking. The reserve is located at 36.44247 latitude and 10.17127 longitude.</t>
         </is>
       </c>
     </row>
@@ -4215,7 +4187,11 @@
           <t>zaghouan</t>
         </is>
       </c>
-      <c r="Y38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>Discover "Salle des fêtes mariem", a top-rated discotheque in Zaghouan. With an impressive 4.3-star rating based on 3 reviews, this establishment offers an unforgettable entertainment experience. Located at C574+6GP in Cite Sanabel (36.402915, 10.142236), "Salle des fêtes mariem" is the ultimate destination for nightlife enthusiasts seeking a memorable time.</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -4316,7 +4292,7 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>If you're in Zaghouan and looking for a great place to eat, check out Restaurant La Joconde located at C43R+4HF Restaurant La Joconde. This top-rated destination is perfect for restaurant lovers and offers a range of categories to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 09:00-16:00, but closed on Sundays. To get there, use these GPS coordinates: 43.7424346, 7.4218257. For more details, visit their website at https://www.google.com/maps/place/Restaurant+La+Joconde/data=!4m7!3m6!1s0x12fd110e115b731b:0xb14c008ac8600492!8m2!3d36.4028052!4d10.1414131!16s%2Fg%2F12hqrycnx!19sChIJG3NbEQ4R_RIRkgRgyIoATLE?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 99 846 808.</t>
+          <t>Restaurant La Joconde is a popular eatery situated in Zaghouan, Tunisia. Boasting a rating of 4.4, it remains closed on Sundays and operates from 9:00 AM to 4:00 PM on other days. Located at C43R+4HF, it offers a wide range of dining options. With its convenient location and inviting atmosphere, Restaurant La Joconde is a sought-after destination for both locals and visitors.</t>
         </is>
       </c>
     </row>
@@ -4415,7 +4391,7 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>If you're in Zaghouan and looking for a delicious meal, be sure to check out LA COMIDA, located at C42V+WW5 LA COMIDA, Cite el Bostene. This top-rated restaurant has a rating of 4.3 and is perfect for those who love great food. To get there, use these GPS coordinates: 36.403808691252, 10.145860039422. For more details, you can call them at 54 517 101.</t>
+          <t>LA COMIDA is a restaurant located in Cité el Bostene, Zaghouan, Tunisia. It is a great place to enjoy a delicious meal, with a rating of 4.3 out of 5 stars. You can contact LA COMIDA at 54 517 101.</t>
         </is>
       </c>
     </row>
@@ -4518,7 +4494,7 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>If you're in zaghouan and looking for a great cafe, check out Espace de Loisirs La Grotte located at Espace de Loisirs La Grotte, Zaghouan. This top-rated destination is perfect for Cafe lovers and offers a range of categories to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 07:00-00:00, but closed on []. To get there, use these GPS coordinates: 36.402915, 10.142236. For more details, visit their website or call them at 23 037 303.</t>
+          <t>Espace de Loisirs La Grotte is a cafe located in Zaghouan, Tunisia. It has a rating of 4.4 out of 5 stars and is open from 7 am to midnight. The cafe offers a variety of food and drinks, and is a popular spot for locals and tourists alike. The cafe is located at 36.402915, 10.142236.</t>
         </is>
       </c>
     </row>
@@ -4621,9 +4597,7 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>If you're in Zaghouan and looking for a cozy cafe, check out L'art'doiz located at 1100 Rue D'environnement. 
-This local favorite is perfect for cafe lovers and offers a range of drink options to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 06:00-00:00, but closed on unspecified days. To get there, use these GPS coordinates: 36.41836234334, 10.128480292988. For more details, visit their website or call them at 98 642 562.</t>
+          <t>L'Art'doiz is a cafe located in Zaghouan, Tunisia. It has a rating of 4.3 stars and offers a cozy atmosphere with a wide selection of drinks and snacks. The cafe is situated at 1100 Rue D'environnement and is open from 6:00AM to midnight, seven days a week.</t>
         </is>
       </c>
     </row>
@@ -4726,7 +4700,7 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>If you're in zaghouan and looking for a relaxing spot, check out Time Out' (Ain Zaghouan nord ) located at rue de l'Algerie, Tunis 2045. This top-rated destination is perfect for Salon de the lovers and offers a range of categories to choose from, including Salon de the, Cafe, and Restaurant. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 06:30-00:00. To get there, use these GPS coordinates: 36.396039107999, 10.145642268539. For more details, visit their website at https://www.google.com/maps/place/Time+Out%27+%28Ain+Zaghouan+nord+%29/data=!4m7!3m6!1s0x12e2b5c1513b9bfb:0x63ca5ce1877df1b!8m2!3d36.8619961!4d10.2888487!16s%2Fg%2F11n0r_551l!19sChIJ-5s7UcG14hIRG993GM6lPAY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 20 496 000.</t>
+          <t>Located in the heart of Zaghouan, Time Out' is a cozy and welcoming establishment that offers a delightful café experience. With its convenient location, it's a perfect spot for locals and visitors alike. Time Out's menu features a tempting selection of drinks and snacks, making it an ideal place to relax and unwind.</t>
         </is>
       </c>
     </row>
@@ -4825,7 +4799,7 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>If you're in zaghouan and looking for a top-rated destination for Restaurant lovers, Mechoui Zaghouan is a must-visit spot. Located at C4CG+92X Mechoui Zaghouan, Zaghouan, this place has a rating of 4.2 and is open 24 hours a day. For more details, visit their website at https://www.google.com/maps/place/Mechoui+Zaghouan/data=!4m7!3m6!1s0x12fd10df541cdead:0xe1e778344ccfa28d!8m2!3d36.420985!4d10.1251142!16s%2Fg%2F11gdgq8v1k!19sChIJrd4cVN8Q_RIRjaLPTDR45-E?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan. You can also use the GPS coordinates (36.402915, 10.142236) to get there.</t>
+          <t>Mechoui Zaghouan, located in Zaghouan, Tunisia, is a 4.2-rated restaurant with 17 reviews. It is a popular spot open 24 hours a day, offering a range of dishes to its customers. Its exact location is at coordinates (36.402915, 10.142236).</t>
         </is>
       </c>
     </row>
@@ -4928,7 +4902,7 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>If you're in zaghouan and looking for a top-rated place for Cafe lovers, check out Grech Coffee located at Rue 20 Mars, Zaghouan 1100. With a rating of 4.9 out of 5, this cafe is a must-visit spot for those who appreciate a great cup of coffee. It's open daily from 06:00 AM to 12:00 AM, so you can enjoy your favorite beverages and snacks whenever you like. For more details, visit their website or call them at 50 554 971.</t>
+          <t>Grech Coffee is a cozy cafe located in the heart of Zaghouan, Tunisia. Open from 6am to midnight, it offers a warm and inviting atmosphere for locals and tourists alike. With a rating of 4.9 stars based on 11 reviews, Grech Coffee is highly regarded for its delicious coffee and friendly service. Coordinates: (36.404729191151, 10.140551547855)</t>
         </is>
       </c>
     </row>
@@ -5027,7 +5001,7 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>If you're in zaghouan, Bruno Salah is a top-rated restaurant worth visiting. Located at 94XW+FV8 Bruno Salah, Rue Sidi Ali Azzouz, Zaghouan, this highly-rated spot boasts a 4.7 rating and is perfect for those who love to dine out. With a cozy ambiance and a menu featuring mouthwatering sandwiches, it's a must-try for food enthusiasts. To get there, you can use the GPS coordinates (36.397737458615, 10.145884861582). For more details, you can call them at 25 406 333.</t>
+          <t>Bruno Salah is a restaurant in Zaghouan, Tunisia, offering a variety of dishes including sandwiches. Its location is 36.397737458615, 10.145884861582.</t>
         </is>
       </c>
     </row>
@@ -5126,9 +5100,7 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>If you're in zaghouan and looking for something fun to do, check out Zaghouan Tabouna located at Rue Khaireddine. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of categories to choose from. 
-With a rating of 4.6, it's a must-visit spot. It's open during these hours: 08:30-22:00. To get there, use these GPS coordinates: 36.402680864697, 10.141498690923. For more details, visit their website at https://www.google.com/maps/place/Zaghouan+Tabouna/data=!4m7!3m6!1s0x12fd110e6ba4cbdb:0x790c136105e32c61!8m2!3d36.4022554!4d10.1411435!16s%2Fg%2F11f50s_9_k!19sChIJ28ukaw4R_RIRYSzjBWETDHk?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Zaghouan Tabouna is a restaurant located in Zaghouan, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine. The restaurant is located at C42R+WF2 Zaghouan Tabouna, Rue Khaireddine, Zaghouan, and its coordinates are (36.402680864697, 10.141498690923). The restaurant is open from 08:30-22:00, and its average rating is 4.6 stars.</t>
         </is>
       </c>
     </row>
@@ -5227,8 +5199,7 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>If you're in zaghouan, you must visit Cheesy food located at Cheesy food, Zaghouan 1100. It's a top-rated destination for Restaurant lovers. With a rating of 4.6, it's a must-visit spot. To get there, you can use these GPS coordinates: 36.38127755, 10.18536985. 
-For more details, visit their website at https://www.google.com/maps/place/Cheesy+food/data=!4m7!3m6!1s0x12fd11b581035229:0x917b17b48b0e9030!8m2!3d36.4042453!4d10.1405035!16s%2Fg%2F11t30snt1b!19sChIJKVIDgbUR_RIRMJAOi7QXe5E?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 27 640 805.</t>
+          <t>Cheesy food is a restaurant located in Zaghouan, Tunisia (36.38127755, 10.18536985). Unfortunately, there is no detailed description or information available about this place. However, it is rated 4.6 out of 5 based on 5 reviews, suggesting that it is a well-regarded establishment in the area.</t>
         </is>
       </c>
     </row>
@@ -5327,7 +5298,7 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>If you're in zaghouan and seeking a great pizza, head to Bon'Gosto, situated at C43R+869. This top-rated pizzeria offers a mouthwatering variety of pizzas to satisfy your cravings. Bon'Gosto boasts a remarkable 5.0 rating, making it a must-visit spot for pizza enthusiasts. You can contact them at 99 583 888 for further information. To get there, you can use the GPS coordinates: 36.402915, 10.142236.</t>
+          <t>Bon'Gosto is a pizzeria located in Zaghouan, Tunisia. It is also rated 5.0 out of 5 by its customers.</t>
         </is>
       </c>
     </row>
@@ -5418,7 +5389,7 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>If you're in zaghouan and looking for a top-rated Restaurant, Fatma kaak warka zaghouan is one to consider. Located at C42W+VGM Fatma kaak warka zaghouan, Rue el Ouard, Zaghouan, this destination caters to Restaurant lovers specifically, with a rating of 4.5.</t>
+          <t>Fatma kaak warka zaghouan is a restaurant located in Zaghouan (Tunisia), offering a variety of dishes. The restaurant has a 4.5 star rating on Google with 2 reviews. The restaurant is located at the following coordinates: (36.403004870365, 10.143450019014).</t>
         </is>
       </c>
     </row>
@@ -5517,8 +5488,7 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>If you're in zaghouan and looking for a great Restaurant de grillades, check out BBQ Ain zaghouane located at V75M+FRM BBQ Ain zaghouane. 
-This top-rated destination offers a range of Restaurant de grillades to choose from and has a rating of 5.0, making it a must-visit spot. To get there, use these GPS coordinates: 36.85401, 10.2848. For more details, visit their website at https://www.google.com/maps/place/BBQ+Ain+zaghouane/data=!4m7!3m6!1s0x12e2b5005f8097e5:0x4b9bd0dba8d69365!8m2!3d36.8587146!4d10.2845494!16s%2Fg%2F11vwldk8s2!19sChIJ5ZeAXwC14hIRZZPWqNvQm0s?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 23 532 970.</t>
+          <t>BBQ Ain Zaghouane is a 5.0 rated restaurant located in Zaghouan. The restaurant offers grilled dishes and is located at the coordinates (36.85401, 10.2848).</t>
         </is>
       </c>
     </row>
@@ -5617,9 +5587,7 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>If you're in Zaghouan and craving delicious crepes, head to Choco Crepe located at C44M+GR6 Choco Crepe, Bd De La Terre. 
-This family-friendly restaurant is a top-rated destination with a 5.0 rating. Open during regular business hours, Choco Crepe offers a mouthwatering selection of crepes. 
-To get there, use the GPS coordinates 36.402915, 10.142236 and be prepared to indulge in some delectable treats!</t>
+          <t>Choco Crepe located in Zaghouan, Tunisia is a family restaurant that offers a cozy and welcoming ambiance. With a rating of 5.0 based on 1 review, this restaurant is highly recommended. The exact location is at the coordinates (36.402915, 10.142236).</t>
         </is>
       </c>
     </row>
@@ -5718,7 +5686,7 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>If you're in zaghouan and looking for something fun to do, check out TASSOU JUICE located at C45P+QV8 TASSOU JUICE, shr` l'rD, zGwn,, Zaghouan. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 07:00-00:00 . To get there, use these GPS coordinates: 36.402915, 10.142236. For more details, call them at 95 451 993</t>
+          <t>TASSOU JUICE is a restaurant located in Zaghouan, Tunisia, close to the city center. It's open every day from 7:00 AM to midnight and offers a variety of food options.</t>
         </is>
       </c>
     </row>
@@ -5817,7 +5785,7 @@
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>If you're in zaghouan and looking for something fun to do, check out Layroo pizza located at C45Q+W26 Layroo pizza, Bd De La Terre, Zaghouan. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 09:00-00:00, but closed on []. To get there, use these GPS coordinates: 36.402915, 10.142236. For more details, visit their website at https://www.google.com/maps/place/Layroo+pizza/data=!4m7!3m6!1s0x12fd1144d83965a7:0x47a3344782740bb1!8m2!3d36.4097833!4d10.1375071!16s%2Fg%2F11h_yv1by6!19sChIJp2U52EQR_RIRsQt0gkc0o0c?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Layroo pizza is a restaurant located at (36.402915, 10.142236) in zaghouan. It has a rating of 4.0 and is open from 09:00-00:00. It offers a variety of dishes and has a featured image of https://lh5.googleusercontent.com/p/AF1QipOj2MfYceAgDSZZYYbTWYRgJoXAh9o3Fnr52mbE=w408-h306-k-no.</t>
         </is>
       </c>
     </row>
@@ -5912,9 +5880,7 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>If you're in zaghouan and looking for transportation, check out station louage Zaghouan located at C42X+425 station louage Zaghouan, Av. de la Liberte, Zaghouan. 
-This destination is perfect for transportation lovers and offers a range of transportation services to choose from. 
-With a rating of 3.3, it's a must-visit spot. To get there, use these GPS coordinates: 36.408350259382, 10.145031666099.</t>
+          <t>Zaghouan's station louage is located at the following address: C42X+425 station louage Zaghouan, Av. de la Liberte, Zaghouan. Its coordinates are (36.408350259382, 10.145031666099) and it offers transportation services.</t>
         </is>
       </c>
     </row>
